--- a/dev/fhir-ig/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T08:09:08+00:00</t>
+    <t>2025-10-09T11:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3367,7 +3367,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>175</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>201</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>205</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>218</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>228</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>245</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>264</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>273</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>325</v>
       </c>
@@ -8075,12 +8075,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP52">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/dev/fhir-ig/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:26:42+00:00</t>
+    <t>2025-10-09T11:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:30:09+00:00</t>
+    <t>2025-10-09T11:39:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:39:09+00:00</t>
+    <t>2025-10-09T11:50:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-cancer-stage.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-cancer-stage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:50:35+00:00</t>
+    <t>2025-10-15T08:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
